--- a/medicine/Pharmacie/Classe_ATC_M/Classe_ATC_M.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_M/Classe_ATC_M.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC M, dénommée « Système musculo-squelettique », est un groupe anatomique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QM[2]. Le groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC M, dénommée « Système musculo-squelettique », est un groupe anatomique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QM. Le groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>M Système musculo-squelettique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">M01 Produits anti-inflammatoires et antirhumatismaux
 M02 Produits topiques pour les douleurs articulaires et musculaires
